--- a/League of Legends_classificado.xlsx
+++ b/League of Legends_classificado.xlsx
@@ -5,25 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivald\OneDrive\Desktop\Rodrigo\Insperzada\Ciencia de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1ebc941d79ebcd3/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D98EB4-2281-4C8C-ADFA-9ACC9B14AF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2957FA7-A09F-4EDF-9902-7DB2081198FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="703">
   <si>
     <t>Treinamento</t>
+  </si>
+  <si>
+    <t>Relevância</t>
   </si>
   <si>
     <t>nao aguento mais jogar league of legends</t>
@@ -2992,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B502" sqref="B502"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3005,10 +3008,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3016,7 +3022,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3024,7 +3030,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3032,7 +3038,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3040,7 +3046,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3056,7 +3062,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3064,7 +3070,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3072,7 +3078,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3080,7 +3086,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3088,7 +3094,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3096,7 +3102,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3104,7 +3110,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3112,7 +3118,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3128,7 +3134,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3136,7 +3142,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3144,7 +3150,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3152,7 +3158,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3160,7 +3166,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3168,7 +3174,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3176,7 +3182,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3184,7 +3190,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3192,7 +3198,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3200,7 +3206,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3208,7 +3214,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3216,7 +3222,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3224,7 +3230,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3232,7 +3238,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3240,7 +3246,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3248,7 +3254,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3256,7 +3262,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3264,7 +3270,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3280,7 +3286,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3288,7 +3294,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3296,7 +3302,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3304,7 +3310,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3312,7 +3318,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3320,7 +3326,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3328,7 +3334,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3336,7 +3342,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3344,7 +3350,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3352,7 +3358,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3360,7 +3366,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3376,7 +3382,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3392,7 +3398,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3400,7 +3406,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3408,7 +3414,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3416,7 +3422,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3424,7 +3430,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3432,7 +3438,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3440,7 +3446,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3448,7 +3454,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3456,7 +3462,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3464,7 +3470,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3472,7 +3478,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3480,7 +3486,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3488,7 +3494,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3496,7 +3502,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3504,7 +3510,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3512,7 +3518,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3520,7 +3526,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3528,7 +3534,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3536,7 +3542,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3544,7 +3550,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3552,7 +3558,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3560,7 +3566,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3568,7 +3574,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3576,7 +3582,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3584,7 +3590,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3592,7 +3598,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3600,7 +3606,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3608,7 +3614,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3616,7 +3622,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3624,7 +3630,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3632,7 +3638,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3640,7 +3646,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3648,7 +3654,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3656,7 +3662,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3664,7 +3670,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3672,7 +3678,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3680,7 +3686,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3688,7 +3694,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3696,7 +3702,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3704,7 +3710,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3712,7 +3718,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3720,7 +3726,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3728,7 +3734,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3736,7 +3742,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3744,7 +3750,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3752,7 +3758,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3760,7 +3766,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3768,7 +3774,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3776,7 +3782,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3784,7 +3790,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3792,7 +3798,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3800,7 +3806,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3808,7 +3814,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3816,7 +3822,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3824,7 +3830,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3832,7 +3838,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -3840,7 +3846,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3848,7 +3854,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3856,7 +3862,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3864,7 +3870,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3872,7 +3878,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -3880,7 +3886,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -3888,7 +3894,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3896,7 +3902,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3904,7 +3910,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3912,7 +3918,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3920,7 +3926,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3928,7 +3934,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3936,7 +3942,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -3944,7 +3950,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3952,7 +3958,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3960,7 +3966,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3968,7 +3974,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3976,7 +3982,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3984,7 +3990,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3992,7 +3998,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -4000,7 +4006,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4008,7 +4014,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4016,7 +4022,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4024,7 +4030,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4032,7 +4038,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4040,7 +4046,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4048,7 +4054,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4056,7 +4062,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4064,7 +4070,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4072,7 +4078,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4080,7 +4086,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4088,7 +4094,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -4096,7 +4102,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -4104,7 +4110,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -4112,7 +4118,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -4120,7 +4126,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -4128,7 +4134,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -4136,7 +4142,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -4144,7 +4150,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -4152,7 +4158,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -4160,7 +4166,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4168,7 +4174,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -4176,7 +4182,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4184,7 +4190,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4192,7 +4198,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -4200,7 +4206,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -4208,7 +4214,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4216,7 +4222,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4224,7 +4230,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4232,7 +4238,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4240,7 +4246,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4248,7 +4254,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4256,7 +4262,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4264,7 +4270,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4272,7 +4278,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -4280,7 +4286,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4288,7 +4294,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4296,7 +4302,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4304,7 +4310,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4312,7 +4318,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4320,7 +4326,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4328,7 +4334,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4336,7 +4342,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4344,7 +4350,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4352,7 +4358,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4360,7 +4366,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4368,7 +4374,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4376,7 +4382,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4384,7 +4390,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -4392,7 +4398,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4400,7 +4406,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4408,7 +4414,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4416,7 +4422,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -4424,7 +4430,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4432,7 +4438,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4440,7 +4446,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4448,7 +4454,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4456,7 +4462,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4464,7 +4470,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4472,7 +4478,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4480,7 +4486,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4488,7 +4494,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4496,7 +4502,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4504,7 +4510,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4512,7 +4518,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4520,7 +4526,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4528,7 +4534,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4536,7 +4542,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4544,7 +4550,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4552,7 +4558,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4560,7 +4566,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4568,7 +4574,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4576,7 +4582,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4584,7 +4590,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4592,7 +4598,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4600,7 +4606,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4608,7 +4614,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -4616,7 +4622,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -4624,7 +4630,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4632,7 +4638,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -4640,7 +4646,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4648,7 +4654,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -4656,7 +4662,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -4664,7 +4670,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -4672,7 +4678,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -4680,7 +4686,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -4688,7 +4694,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -4696,7 +4702,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -4704,7 +4710,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -4712,7 +4718,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -4720,7 +4726,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -4728,7 +4734,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -4736,7 +4742,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -4744,7 +4750,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -4752,7 +4758,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -4760,7 +4766,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -4768,7 +4774,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -4776,7 +4782,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -4784,7 +4790,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -4792,7 +4798,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -4800,7 +4806,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -4808,7 +4814,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -4816,7 +4822,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -4824,7 +4830,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -4832,7 +4838,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -4840,7 +4846,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4848,7 +4854,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -4856,7 +4862,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -4864,7 +4870,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -4872,7 +4878,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -4880,7 +4886,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -4888,7 +4894,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -4896,7 +4902,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -4904,7 +4910,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -4912,7 +4918,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -4920,7 +4926,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -4928,7 +4934,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4936,7 +4942,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -4944,7 +4950,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -4952,7 +4958,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -4960,7 +4966,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -4968,7 +4974,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -4976,7 +4982,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -4984,7 +4990,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -4992,7 +4998,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -5000,7 +5006,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -5008,7 +5014,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -5016,7 +5022,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -5024,7 +5030,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5032,7 +5038,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -5040,7 +5046,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5048,7 +5054,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -5056,7 +5062,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -5064,7 +5070,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -5072,7 +5078,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -5080,7 +5086,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -5088,7 +5094,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -5096,7 +5102,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -5104,7 +5110,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -5112,7 +5118,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -5120,7 +5126,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -5128,7 +5134,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -5136,7 +5142,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -5144,7 +5150,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -5152,7 +5158,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -5160,7 +5166,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -5168,7 +5174,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -5176,7 +5182,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -5184,7 +5190,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -5192,7 +5198,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -5200,7 +5206,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -5208,7 +5214,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -5216,7 +5222,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -5224,7 +5230,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -5232,7 +5238,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -5240,7 +5246,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5248,7 +5254,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -5256,7 +5262,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -5264,7 +5270,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -5272,7 +5278,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -5280,7 +5286,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -5288,7 +5294,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -5296,7 +5302,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -5304,7 +5310,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -5312,7 +5318,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -5320,7 +5326,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -5328,7 +5334,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -5336,7 +5342,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -5344,7 +5350,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5352,7 +5358,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -5360,7 +5366,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -5368,7 +5374,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -5376,7 +5382,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -5384,7 +5390,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -5392,7 +5398,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -5400,7 +5406,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -5408,7 +5414,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -5416,7 +5422,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -5424,7 +5430,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -5432,7 +5438,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -5440,7 +5446,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -5448,7 +5454,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -5456,7 +5462,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -5464,7 +5470,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -5472,7 +5478,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -5480,7 +5486,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -5488,7 +5494,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -5496,7 +5502,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -5504,7 +5510,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -5512,7 +5518,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -5520,7 +5526,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -5528,7 +5534,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -5536,7 +5542,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -5544,7 +5550,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -5552,7 +5558,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -5560,7 +5566,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -5568,7 +5574,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -5576,7 +5582,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -5584,7 +5590,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -5592,7 +5598,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -5600,7 +5606,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -5608,7 +5614,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -5616,7 +5622,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -5624,7 +5630,7 @@
     </row>
     <row r="329" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -5632,7 +5638,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -5640,7 +5646,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -5648,7 +5654,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -5656,7 +5662,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -5664,7 +5670,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -5672,7 +5678,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -5680,7 +5686,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -5688,7 +5694,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -5696,7 +5702,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -5704,7 +5710,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -5712,7 +5718,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -5720,7 +5726,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -5728,7 +5734,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -5736,7 +5742,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -5744,7 +5750,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -5752,7 +5758,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -5760,7 +5766,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -5768,7 +5774,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -5776,7 +5782,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -5784,7 +5790,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -5792,7 +5798,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -5800,7 +5806,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -5808,7 +5814,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -5816,7 +5822,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -5824,7 +5830,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -5832,7 +5838,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -5840,7 +5846,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -5848,7 +5854,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -5856,7 +5862,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -5864,7 +5870,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -5872,7 +5878,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -5880,7 +5886,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -5888,7 +5894,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -5896,7 +5902,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -5904,7 +5910,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -5912,7 +5918,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -5920,7 +5926,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -5928,7 +5934,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -5936,7 +5942,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -5944,7 +5950,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -5952,7 +5958,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -5960,7 +5966,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -5968,7 +5974,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -5976,7 +5982,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -5984,7 +5990,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -5992,7 +5998,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -6000,7 +6006,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -6008,7 +6014,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -6016,7 +6022,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -6024,7 +6030,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -6032,7 +6038,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -6040,7 +6046,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6048,7 +6054,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -6056,7 +6062,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -6064,7 +6070,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -6072,7 +6078,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -6080,7 +6086,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -6088,7 +6094,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -6096,7 +6102,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -6104,7 +6110,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -6112,7 +6118,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -6120,7 +6126,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -6128,7 +6134,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -6136,7 +6142,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -6144,7 +6150,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -6152,7 +6158,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -6160,7 +6166,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -6168,7 +6174,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -6176,7 +6182,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -6184,7 +6190,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -6192,7 +6198,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -6200,7 +6206,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -6208,7 +6214,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -6216,7 +6222,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -6224,7 +6230,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -6232,7 +6238,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -6240,7 +6246,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -6248,7 +6254,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -6256,7 +6262,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -6264,7 +6270,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -6272,7 +6278,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -6280,7 +6286,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -6288,7 +6294,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -6296,7 +6302,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -6304,7 +6310,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -6312,7 +6318,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -6320,7 +6326,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -6328,7 +6334,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -6336,7 +6342,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -6344,7 +6350,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -6352,7 +6358,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -6360,7 +6366,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -6368,7 +6374,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -6376,7 +6382,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -6384,7 +6390,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -6392,7 +6398,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -6400,7 +6406,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -6408,7 +6414,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -6416,7 +6422,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -6424,7 +6430,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -6432,7 +6438,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -6440,7 +6446,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -6448,7 +6454,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -6456,7 +6462,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -6464,7 +6470,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -6472,7 +6478,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -6480,7 +6486,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -6488,7 +6494,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -6496,7 +6502,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -6504,7 +6510,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -6512,7 +6518,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -6520,7 +6526,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -6528,7 +6534,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -6536,7 +6542,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -6544,7 +6550,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B444">
         <v>0</v>
@@ -6552,7 +6558,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -6560,7 +6566,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -6568,7 +6574,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -6576,7 +6582,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -6584,7 +6590,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -6592,7 +6598,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B450">
         <v>0</v>
@@ -6600,7 +6606,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -6608,7 +6614,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -6616,7 +6622,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -6624,7 +6630,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -6632,7 +6638,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -6640,7 +6646,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -6648,7 +6654,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B457">
         <v>0</v>
@@ -6656,7 +6662,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B458">
         <v>0</v>
@@ -6664,7 +6670,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -6672,7 +6678,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -6680,7 +6686,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -6688,7 +6694,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -6696,7 +6702,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B463">
         <v>0</v>
@@ -6704,7 +6710,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -6712,7 +6718,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -6720,7 +6726,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B466">
         <v>0</v>
@@ -6728,7 +6734,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -6736,7 +6742,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -6744,7 +6750,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -6752,7 +6758,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -6760,7 +6766,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -6768,7 +6774,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -6776,7 +6782,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -6784,7 +6790,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -6792,7 +6798,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -6800,7 +6806,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -6808,7 +6814,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -6816,7 +6822,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -6824,7 +6830,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B479">
         <v>0</v>
@@ -6832,7 +6838,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -6840,7 +6846,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B481">
         <v>0</v>
@@ -6848,7 +6854,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B482">
         <v>0</v>
@@ -6856,7 +6862,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -6864,7 +6870,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B484">
         <v>0</v>
@@ -6872,7 +6878,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B485">
         <v>0</v>
@@ -6880,7 +6886,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -6888,7 +6894,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B487">
         <v>0</v>
@@ -6896,7 +6902,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B488">
         <v>0</v>
@@ -6904,7 +6910,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B489">
         <v>0</v>
@@ -6912,7 +6918,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B490">
         <v>0</v>
@@ -6920,7 +6926,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B491">
         <v>1</v>
@@ -6928,7 +6934,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -6936,7 +6942,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -6944,7 +6950,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -6952,7 +6958,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -6960,7 +6966,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -6968,7 +6974,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -6976,7 +6982,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B498">
         <v>0</v>
@@ -6984,7 +6990,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -6992,7 +6998,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -7000,7 +7006,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B501">
         <v>0</v>
@@ -7013,1015 +7019,1623 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="161.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8030,21 +8644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081E9768C82F49644B58CE34C046ED41B" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2229caae37483ad5a462ce34e96692ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a" xmlns:ns4="5e7fd5c0-e32b-44ca-8221-753f046e90c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16318db4c03cf5df39967576ac8df3d1" ns3:_="" ns4:_="">
     <xsd:import namespace="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
@@ -8233,32 +8832,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46527F39-30F2-4D9E-9F8D-ACE43DE2ED3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{312196B3-DFAB-4209-99A7-B0007C8BA7BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9965D06E-56CA-4B81-92F6-016C02290F6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8275,4 +8864,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{312196B3-DFAB-4209-99A7-B0007C8BA7BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46527F39-30F2-4D9E-9F8D-ACE43DE2ED3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>